--- a/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.3.xlsx
@@ -2092,7 +2092,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="933E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A613" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2239,7 +2239,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BDE4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CDF8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2388,7 +2388,7 @@
       <c r="J4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F453" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9240" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:J4"/>
   </mergeCells>
@@ -3155,7 +3155,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EE34" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F487" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3244,7 +3244,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F00F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ECAD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3718,7 +3718,7 @@
       <c r="AN4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BAB1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C0C5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AN4"/>
   </mergeCells>
@@ -3992,7 +3992,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E6C3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E3F8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>
@@ -4161,7 +4161,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FD02" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B122" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4371,7 +4371,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="894E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D931" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.3.xlsx
@@ -2092,7 +2092,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="A613" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9410" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2239,7 +2239,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CDF8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8D2A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2388,7 +2388,7 @@
       <c r="J4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9240" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BC89" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:J4"/>
   </mergeCells>
@@ -3155,7 +3155,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F487" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D9F8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3244,7 +3244,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="ECAD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E54C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3718,7 +3718,7 @@
       <c r="AN4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C0C5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C6D8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AN4"/>
   </mergeCells>
@@ -3992,7 +3992,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E3F8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C2A9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>
@@ -4161,7 +4161,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B122" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9592" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4371,7 +4371,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D931" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EDCB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.3.xlsx
@@ -2092,7 +2092,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="9410" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="91CB" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2239,7 +2239,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8D2A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9904" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2388,7 +2388,7 @@
       <c r="J4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BC89" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FD14" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:J4"/>
   </mergeCells>
@@ -3155,7 +3155,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D9F8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D309" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3244,7 +3244,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E54C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C41F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3718,7 +3718,7 @@
       <c r="AN4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C6D8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EDDB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AN4"/>
   </mergeCells>
@@ -3992,7 +3992,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C2A9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F6DC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>
@@ -4161,7 +4161,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9592" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F2E6" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4371,7 +4371,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EDCB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="812B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.3.xlsx
@@ -2092,7 +2092,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="91CB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ED93" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2239,7 +2239,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9904" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A23E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2388,7 +2388,7 @@
       <c r="J4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FD14" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F3CF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:J4"/>
   </mergeCells>
@@ -3155,7 +3155,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D309" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3244,7 +3244,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C41F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F49A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3718,7 +3718,7 @@
       <c r="AN4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EDDB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A676" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AN4"/>
   </mergeCells>
@@ -3992,7 +3992,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F6DC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B693" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>
@@ -4161,7 +4161,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F2E6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AACD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4371,7 +4371,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="812B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="812F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.3.xlsx
@@ -2092,7 +2092,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="ED93" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="80FD" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2239,7 +2239,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A23E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E865" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2388,7 +2388,7 @@
       <c r="J4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F3CF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8454" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:J4"/>
   </mergeCells>
@@ -3155,7 +3155,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F879" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9800" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3244,7 +3244,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F49A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8DAB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3718,7 +3718,7 @@
       <c r="AN4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A676" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8F81" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AN4"/>
   </mergeCells>
@@ -3992,7 +3992,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B693" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BCBE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>
@@ -4161,7 +4161,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AACD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D756" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4371,7 +4371,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="812F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C1E6" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.3.xlsx
@@ -2092,7 +2092,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="80FD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BD0D" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2239,7 +2239,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E865" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AC1D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2388,7 +2388,7 @@
       <c r="J4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8454" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9885" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:J4"/>
   </mergeCells>
@@ -3155,7 +3155,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9800" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E0BA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3244,7 +3244,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8DAB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BCFF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3718,7 +3718,7 @@
       <c r="AN4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8F81" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8DE2" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AN4"/>
   </mergeCells>
@@ -3992,7 +3992,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BCBE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="810C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>
@@ -4161,7 +4161,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D756" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B2D7" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4371,7 +4371,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C1E6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AD31" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.3.xlsx
@@ -2092,7 +2092,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="BD0D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8E65" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2239,7 +2239,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AC1D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CAD3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2388,7 +2388,7 @@
       <c r="J4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9885" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AA98" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:J4"/>
   </mergeCells>
@@ -3155,7 +3155,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E0BA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E582" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3244,7 +3244,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BCFF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C19B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3718,7 +3718,7 @@
       <c r="AN4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8DE2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FF1E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AN4"/>
   </mergeCells>
@@ -3992,7 +3992,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="810C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C35A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>
@@ -4161,7 +4161,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B2D7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E5D4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4371,7 +4371,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AD31" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FCA2" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.3.xlsx
@@ -2092,7 +2092,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="8E65" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B6E5" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2239,7 +2239,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CAD3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CB3E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2388,7 +2388,7 @@
       <c r="J4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AA98" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DE04" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:J4"/>
   </mergeCells>
@@ -3155,7 +3155,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E582" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D328" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3244,7 +3244,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C19B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9EC0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3718,7 +3718,7 @@
       <c r="AN4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FF1E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="97FD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AN4"/>
   </mergeCells>
@@ -3992,7 +3992,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C35A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DAFC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>
@@ -4161,7 +4161,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E5D4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B96A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4371,7 +4371,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FCA2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BB03" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.3.xlsx
@@ -2092,7 +2092,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="B6E5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B465" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2239,7 +2239,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CB3E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8B2E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2388,7 +2388,7 @@
       <c r="J4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DE04" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E15E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:J4"/>
   </mergeCells>
@@ -3155,7 +3155,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D328" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BAA7" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3244,7 +3244,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9EC0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F4C2" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3718,7 +3718,7 @@
       <c r="AN4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="97FD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D8F9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AN4"/>
   </mergeCells>
@@ -3992,7 +3992,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DAFC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E895" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>
@@ -4161,7 +4161,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B96A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F070" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4371,7 +4371,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BB03" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C306" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.3.xlsx
@@ -2092,7 +2092,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="B465" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CBBF" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2239,7 +2239,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8B2E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EFE4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2388,7 +2388,7 @@
       <c r="J4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E15E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ACD6" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:J4"/>
   </mergeCells>
@@ -3155,7 +3155,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BAA7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8B25" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3244,7 +3244,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F4C2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D944" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3718,7 +3718,7 @@
       <c r="AN4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D8F9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D0BB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AN4"/>
   </mergeCells>
@@ -3992,7 +3992,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E895" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9E2A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>
@@ -4161,7 +4161,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F070" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8BCD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4371,7 +4371,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C306" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D65D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.3.xlsx
@@ -2092,7 +2092,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CBBF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EA48" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2239,7 +2239,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EFE4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E7F9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2388,7 +2388,7 @@
       <c r="J4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="ACD6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8014" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:J4"/>
   </mergeCells>
@@ -3155,7 +3155,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8B25" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B0AC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3244,7 +3244,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D944" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E26B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3718,7 +3718,7 @@
       <c r="AN4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D0BB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A6B7" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AN4"/>
   </mergeCells>
@@ -3992,7 +3992,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9E2A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EE7C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>
@@ -4161,7 +4161,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8BCD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DF97" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4371,7 +4371,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D65D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F0AB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
